--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tgfa-Erbb4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tgfa-Erbb4.xlsx
@@ -528,22 +528,22 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.570801666666667</v>
+        <v>0.5909176666666667</v>
       </c>
       <c r="H2">
-        <v>4.712405</v>
+        <v>1.772753</v>
       </c>
       <c r="I2">
-        <v>0.9976494164929963</v>
+        <v>0.9937758428931484</v>
       </c>
       <c r="J2">
-        <v>0.9976494164929962</v>
+        <v>0.9937758428931482</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,19 +561,19 @@
         <v>0.9810128591839975</v>
       </c>
       <c r="P2">
-        <v>0.9810128591839975</v>
+        <v>0.9810128591839974</v>
       </c>
       <c r="Q2">
-        <v>0.016177686365</v>
+        <v>0.006085861049000001</v>
       </c>
       <c r="R2">
-        <v>0.145599177285</v>
+        <v>0.054772749441</v>
       </c>
       <c r="S2">
-        <v>0.9787069065370411</v>
+        <v>0.9749068810245946</v>
       </c>
       <c r="T2">
-        <v>0.978706906537041</v>
+        <v>0.9749068810245943</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.570801666666667</v>
+        <v>0.5909176666666667</v>
       </c>
       <c r="H3">
-        <v>4.712405</v>
+        <v>1.772753</v>
       </c>
       <c r="I3">
-        <v>0.9976494164929963</v>
+        <v>0.9937758428931484</v>
       </c>
       <c r="J3">
-        <v>0.9976494164929962</v>
+        <v>0.9937758428931482</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>0.01898714081600254</v>
       </c>
       <c r="Q3">
-        <v>0.0003131131322222223</v>
+        <v>0.0001177895882222222</v>
       </c>
       <c r="R3">
-        <v>0.00281801819</v>
+        <v>0.001060106294</v>
       </c>
       <c r="S3">
-        <v>0.01894250995595529</v>
+        <v>0.01886896186855382</v>
       </c>
       <c r="T3">
-        <v>0.01894250995595529</v>
+        <v>0.01886896186855382</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>0.011103</v>
       </c>
       <c r="I4">
-        <v>0.002350583507003693</v>
+        <v>0.006224157106851674</v>
       </c>
       <c r="J4">
-        <v>0.002350583507003693</v>
+        <v>0.006224157106851673</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,19 +685,19 @@
         <v>0.9810128591839975</v>
       </c>
       <c r="P4">
-        <v>0.9810128591839975</v>
+        <v>0.9810128591839974</v>
       </c>
       <c r="Q4">
         <v>3.8116599E-05</v>
       </c>
       <c r="R4">
-        <v>0.0003430493910000001</v>
+        <v>0.000343049391</v>
       </c>
       <c r="S4">
-        <v>0.002305952646956441</v>
+        <v>0.006105978159402958</v>
       </c>
       <c r="T4">
-        <v>0.002305952646956441</v>
+        <v>0.006105978159402958</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.011103</v>
       </c>
       <c r="I5">
-        <v>0.002350583507003693</v>
+        <v>0.006224157106851674</v>
       </c>
       <c r="J5">
-        <v>0.002350583507003693</v>
+        <v>0.006224157106851673</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -756,10 +756,10 @@
         <v>6.639594E-06</v>
       </c>
       <c r="S5">
-        <v>4.46308600472522E-05</v>
+        <v>0.0001181789474487157</v>
       </c>
       <c r="T5">
-        <v>4.46308600472522E-05</v>
+        <v>0.0001181789474487157</v>
       </c>
     </row>
   </sheetData>
